--- a/Project Tracker.xlsx
+++ b/Project Tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\locale\ly\projects\FaMAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\locale\ly\projects\artisan-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1845001F-0A5A-465A-8A85-EBF5833C14A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B29BC86-3A07-46F9-956B-B7B32F36B1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7352EEA0-E213-4B45-A5B2-9E24555BD19A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
   <si>
     <t>Project Start</t>
   </si>
@@ -318,6 +318,36 @@
   </si>
   <si>
     <t>Integration test pending</t>
+  </si>
+  <si>
+    <t>Document upload</t>
+  </si>
+  <si>
+    <t>Milestone 3</t>
+  </si>
+  <si>
+    <t>Milestone 4</t>
+  </si>
+  <si>
+    <t>Database Design</t>
+  </si>
+  <si>
+    <t>ER Definition</t>
+  </si>
+  <si>
+    <t>ER Design</t>
+  </si>
+  <si>
+    <t>Schema Creation</t>
+  </si>
+  <si>
+    <t>Model Mapping</t>
+  </si>
+  <si>
+    <t>Database Configuration</t>
+  </si>
+  <si>
+    <t>Model Configuration</t>
   </si>
 </sst>
 </file>
@@ -621,16 +651,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EC11CA-85A1-4736-9D8D-54DA1C1DECD6}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1010,21 +1040,21 @@
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
       <c r="N4" t="s">
         <v>45</v>
       </c>
@@ -1033,10 +1063,10 @@
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="15" t="s">
         <v>4</v>
       </c>
@@ -1046,10 +1076,10 @@
       <c r="H5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="26"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="16" t="s">
         <v>4</v>
       </c>
@@ -1281,12 +1311,12 @@
       <c r="A20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
       <c r="H20" s="18" t="s">
         <v>37</v>
       </c>
@@ -1396,12 +1426,12 @@
       <c r="H31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="I31" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="28"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="26"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
@@ -1489,6 +1519,9 @@
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="H41" t="s">
         <v>71</v>
       </c>
@@ -1518,16 +1551,77 @@
         <v>87</v>
       </c>
     </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H47" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="8:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="50" spans="8:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H50" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="26"/>
+    </row>
+    <row r="52" spans="8:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="8:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H53" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="26"/>
+    </row>
+    <row r="54" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="H54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="H55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="H56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="H57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="H58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="8:12" x14ac:dyDescent="0.35">
+      <c r="H59" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I53:L53"/>
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="I4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1784,12 +1878,12 @@
       <c r="H18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
